--- a/medicine/Psychotrope/ISO_3103/ISO_3103.xlsx
+++ b/medicine/Psychotrope/ISO_3103/ISO_3103.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La norme ISO 3103 est une norme internationale publiée par l'Organisation internationale de normalisation (ISO) qui spécifie une méthode standardisée d'infusion du thé. Elle a été rédigée par le comité technique 34 de l'ISO (produits alimentaires), sous-comité 8 (thé) après la publication en 1980 de la norme BS 6008:1980 de l’organisme British Standards Institute (BSI).
 Le résumé de la norme indique :
@@ -515,7 +527,9 @@
           <t>Détails</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Afin de maintenir des résultats cohérents, les recommandations suivantes sont données par la norme :
 Le récipient doit être en porcelaine blanche ou de vitrage en terre cuite et avoir un bec verseur. Il devrait également avoir un couvercle qui s'y adapte parfaitement.
@@ -558,9 +572,11 @@
           <t>Normes concurrentes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2003, la Royal Society of Chemistry a publié un communiqué intitulé « How to make a Perfect Cup of Tea[1] » — de l'anglais signifiant littéralement « comment faire une tasse de thé parfaite. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, la Royal Society of Chemistry a publié un communiqué intitulé « How to make a Perfect Cup of Tea » — de l'anglais signifiant littéralement « comment faire une tasse de thé parfaite. »
 </t>
         </is>
       </c>
